--- a/Results/Progression/progression.xlsx
+++ b/Results/Progression/progression.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.14 (1.01) [-3.19,3.42]</t>
+          <t>-0.11 (1.05) [-3.19,3.42]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.07 (1.0) [-2.86,2.78]</t>
+          <t>0.07 (0.97) [-2.56,2.78]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.35 (0.93) [-3.12,3.31]</t>
+          <t>-0.39 (0.95) [-3.12,3.31]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.67 (0.68) [-2.98,1.75]</t>
+          <t>-0.67 (0.66) [-2.98,1.47]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.1 (1.01) [-2.55,3.08]</t>
+          <t>-0.13 (0.99) [-2.55,3.08]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.71 (0.26) [0.07,1.3]</t>
+          <t>0.72 (0.26) [0.07,1.3]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
